--- a/SNE/info.xlsx
+++ b/SNE/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Judson\Documents\GitHub\SNE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8583E3-8E24-4C7B-AB19-67B9846C937E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9A88CF-94EF-4978-BCBD-A064114CBCCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{413F927C-386C-40FA-A8CA-7E7972151CD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{413F927C-386C-40FA-A8CA-7E7972151CD3}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="1" r:id="rId1"/>
@@ -30,18 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PLACAS</t>
   </si>
   <si>
     <t>VOCÊ DEVE INSERIR APENAS AS PLACAS CUJO VEÍCULOS SÃO DA EMPRESA QUE VOCÊ IRÁ ESCOLHER NO LOGIN DO SNE. CASO CONTRÁRIO, NÃO SERÃO ENCONTRADAS E RESULTARÃO EM ERRO DE EXECUÇÃO DA APLICAÇÃO.</t>
-  </si>
-  <si>
-    <t>PNM5026</t>
-  </si>
-  <si>
-    <t>PMX0F96</t>
   </si>
 </sst>
 </file>
@@ -432,17 +426,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311999CD-BB6F-49C8-9F90-EE2164453545}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A4:A9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -454,34 +448,28 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
